--- a/assignment5/bandwidth/results.xlsx
+++ b/assignment5/bandwidth/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment5\bandwidth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ADFB26-DA51-4689-91AC-A228EFC8BA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8BFE8A-061F-42DF-A5E4-19A5E2A409D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>Length</t>
   </si>
@@ -77,8 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -128,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,6 +147,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1314,7 +1316,965 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Latency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>core_to_core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$30:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$30:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>7.9451733333333338E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1333966666666659E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0991233333333335E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9894133333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0069933333333336E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2338866666666673E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1626099999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2070299999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1984899999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0690233333333345E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0666266666666651E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1288166666666675E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1562099999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1934100000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1893933333333335E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.263630000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0929933333333335E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0901699999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1662499999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.06897E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1400666666666668E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A63-4720-B295-424F1E9A314A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>socket_to_socket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$30:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$30:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.3439610000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3575753333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34676E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3681613333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3590806666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3461250000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3620343333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3447466666666665E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3467586666666665E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3450736666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.342427E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3505073333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.361849E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.353901E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.348379E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3536603333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3474343333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3531253333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3572073333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3690073333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3582993333333335E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A63-4720-B295-424F1E9A314A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>node_to_node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$30:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$30:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.9338837499999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9348065E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9746087500000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9511667499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9389422499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9426159999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.947692E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9977895E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9451584999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3955087499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4001062499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4033469999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3991952499999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4098915000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4070787500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4131002499999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3852085000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4029307499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4066862499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4075475000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4097835000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A63-4720-B295-424F1E9A314A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="945425584"/>
+        <c:axId val="945443056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="945425584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message size [Byte]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945443056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="945443056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945425584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1870,20 +2830,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1903,6 +3379,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD22ABD-6B5A-4A48-95FE-A198FB9AE169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2176,7 +3688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27:G27"/>
     </sheetView>
   </sheetViews>
@@ -5074,16 +6586,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="T2:AB2"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="J28:P28"/>
     <mergeCell ref="T28:AB28"/>
@@ -5093,6 +6595,16 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="B27:G27"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="U29:X29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5101,10 +6613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD40401-06D6-4454-B8BC-15D67AFA96B2}">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5570,9 +7082,465 @@
         <v>309073.16462883475</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f>POWER(2,$A30)</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="11">
+        <f>AVERAGE(Tabelle1!C4:E4)</f>
+        <v>7.9451733333333338E-4</v>
+      </c>
+      <c r="D30" s="11">
+        <f>AVERAGE(Tabelle1!K4:M4)</f>
+        <v>1.3439610000000001E-3</v>
+      </c>
+      <c r="E30" s="11">
+        <f>AVERAGE(Tabelle1!U4:X4)</f>
+        <v>2.9338837499999996E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:B50" si="1">POWER(2,$A31)</f>
+        <v>2</v>
+      </c>
+      <c r="C31" s="11">
+        <f>AVERAGE(Tabelle1!C5:E5)</f>
+        <v>8.1333966666666659E-4</v>
+      </c>
+      <c r="D31" s="11">
+        <f>AVERAGE(Tabelle1!K5:M5)</f>
+        <v>1.3575753333333336E-3</v>
+      </c>
+      <c r="E31" s="11">
+        <f>AVERAGE(Tabelle1!U5:X5)</f>
+        <v>2.9348065E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C32" s="11">
+        <f>AVERAGE(Tabelle1!C6:E6)</f>
+        <v>8.0991233333333335E-4</v>
+      </c>
+      <c r="D32" s="11">
+        <f>AVERAGE(Tabelle1!K6:M6)</f>
+        <v>1.34676E-3</v>
+      </c>
+      <c r="E32" s="11">
+        <f>AVERAGE(Tabelle1!U6:X6)</f>
+        <v>2.9746087500000002E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C33" s="11">
+        <f>AVERAGE(Tabelle1!C7:E7)</f>
+        <v>7.9894133333333333E-4</v>
+      </c>
+      <c r="D33" s="11">
+        <f>AVERAGE(Tabelle1!K7:M7)</f>
+        <v>1.3681613333333335E-3</v>
+      </c>
+      <c r="E33" s="11">
+        <f>AVERAGE(Tabelle1!U7:X7)</f>
+        <v>2.9511667499999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C34" s="11">
+        <f>AVERAGE(Tabelle1!C8:E8)</f>
+        <v>8.0069933333333336E-4</v>
+      </c>
+      <c r="D34" s="11">
+        <f>AVERAGE(Tabelle1!K8:M8)</f>
+        <v>1.3590806666666667E-3</v>
+      </c>
+      <c r="E34" s="11">
+        <f>AVERAGE(Tabelle1!U8:X8)</f>
+        <v>2.9389422499999998E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="11">
+        <f>AVERAGE(Tabelle1!C9:E9)</f>
+        <v>8.2338866666666673E-4</v>
+      </c>
+      <c r="D35" s="11">
+        <f>AVERAGE(Tabelle1!K9:M9)</f>
+        <v>1.3461250000000001E-3</v>
+      </c>
+      <c r="E35" s="11">
+        <f>AVERAGE(Tabelle1!U9:X9)</f>
+        <v>2.9426159999999999E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C36" s="11">
+        <f>AVERAGE(Tabelle1!C10:E10)</f>
+        <v>8.1626099999999998E-4</v>
+      </c>
+      <c r="D36" s="11">
+        <f>AVERAGE(Tabelle1!K10:M10)</f>
+        <v>1.3620343333333336E-3</v>
+      </c>
+      <c r="E36" s="11">
+        <f>AVERAGE(Tabelle1!U10:X10)</f>
+        <v>2.947692E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="C37" s="11">
+        <f>AVERAGE(Tabelle1!C11:E11)</f>
+        <v>8.2070299999999999E-4</v>
+      </c>
+      <c r="D37" s="11">
+        <f>AVERAGE(Tabelle1!K11:M11)</f>
+        <v>1.3447466666666665E-3</v>
+      </c>
+      <c r="E37" s="11">
+        <f>AVERAGE(Tabelle1!U11:X11)</f>
+        <v>2.9977895E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="C38" s="11">
+        <f>AVERAGE(Tabelle1!C12:E12)</f>
+        <v>8.1984899999999999E-4</v>
+      </c>
+      <c r="D38" s="11">
+        <f>AVERAGE(Tabelle1!K12:M12)</f>
+        <v>1.3467586666666665E-3</v>
+      </c>
+      <c r="E38" s="11">
+        <f>AVERAGE(Tabelle1!U12:X12)</f>
+        <v>2.9451584999999995E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>512</v>
+      </c>
+      <c r="C39" s="11">
+        <f>AVERAGE(Tabelle1!C13:E13)</f>
+        <v>8.0690233333333345E-4</v>
+      </c>
+      <c r="D39" s="11">
+        <f>AVERAGE(Tabelle1!K13:M13)</f>
+        <v>1.3450736666666668E-3</v>
+      </c>
+      <c r="E39" s="11">
+        <f>AVERAGE(Tabelle1!U13:X13)</f>
+        <v>3.3955087499999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="C40" s="11">
+        <f>AVERAGE(Tabelle1!C14:E14)</f>
+        <v>8.0666266666666651E-4</v>
+      </c>
+      <c r="D40" s="11">
+        <f>AVERAGE(Tabelle1!K14:M14)</f>
+        <v>1.342427E-3</v>
+      </c>
+      <c r="E40" s="11">
+        <f>AVERAGE(Tabelle1!U14:X14)</f>
+        <v>3.4001062499999998E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="C41" s="11">
+        <f>AVERAGE(Tabelle1!C15:E15)</f>
+        <v>8.1288166666666675E-4</v>
+      </c>
+      <c r="D41" s="11">
+        <f>AVERAGE(Tabelle1!K15:M15)</f>
+        <v>1.3505073333333333E-3</v>
+      </c>
+      <c r="E41" s="11">
+        <f>AVERAGE(Tabelle1!U15:X15)</f>
+        <v>3.4033469999999997E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+      <c r="C42" s="11">
+        <f>AVERAGE(Tabelle1!C16:E16)</f>
+        <v>8.1562099999999999E-4</v>
+      </c>
+      <c r="D42" s="11">
+        <f>AVERAGE(Tabelle1!K16:M16)</f>
+        <v>1.361849E-3</v>
+      </c>
+      <c r="E42" s="11">
+        <f>AVERAGE(Tabelle1!U16:X16)</f>
+        <v>3.3991952499999997E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+      <c r="C43" s="11">
+        <f>AVERAGE(Tabelle1!C17:E17)</f>
+        <v>8.1934100000000001E-4</v>
+      </c>
+      <c r="D43" s="11">
+        <f>AVERAGE(Tabelle1!K17:M17)</f>
+        <v>1.353901E-3</v>
+      </c>
+      <c r="E43" s="11">
+        <f>AVERAGE(Tabelle1!U17:X17)</f>
+        <v>3.4098915000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="C44" s="11">
+        <f>AVERAGE(Tabelle1!C18:E18)</f>
+        <v>8.1893933333333335E-4</v>
+      </c>
+      <c r="D44" s="11">
+        <f>AVERAGE(Tabelle1!K18:M18)</f>
+        <v>1.348379E-3</v>
+      </c>
+      <c r="E44" s="11">
+        <f>AVERAGE(Tabelle1!U18:X18)</f>
+        <v>3.4070787500000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+      <c r="C45" s="11">
+        <f>AVERAGE(Tabelle1!C19:E19)</f>
+        <v>8.263630000000001E-4</v>
+      </c>
+      <c r="D45" s="11">
+        <f>AVERAGE(Tabelle1!K19:M19)</f>
+        <v>1.3536603333333334E-3</v>
+      </c>
+      <c r="E45" s="11">
+        <f>AVERAGE(Tabelle1!U19:X19)</f>
+        <v>3.4131002499999995E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+      <c r="C46" s="11">
+        <f>AVERAGE(Tabelle1!C20:E20)</f>
+        <v>8.0929933333333335E-4</v>
+      </c>
+      <c r="D46" s="11">
+        <f>AVERAGE(Tabelle1!K20:M20)</f>
+        <v>1.3474343333333336E-3</v>
+      </c>
+      <c r="E46" s="11">
+        <f>AVERAGE(Tabelle1!U20:X20)</f>
+        <v>3.3852085000000004E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>131072</v>
+      </c>
+      <c r="C47" s="11">
+        <f>AVERAGE(Tabelle1!C21:E21)</f>
+        <v>8.0901699999999998E-4</v>
+      </c>
+      <c r="D47" s="11">
+        <f>AVERAGE(Tabelle1!K21:M21)</f>
+        <v>1.3531253333333333E-3</v>
+      </c>
+      <c r="E47" s="11">
+        <f>AVERAGE(Tabelle1!U21:X21)</f>
+        <v>3.4029307499999998E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="C48" s="11">
+        <f>AVERAGE(Tabelle1!C22:E22)</f>
+        <v>8.1662499999999997E-4</v>
+      </c>
+      <c r="D48" s="11">
+        <f>AVERAGE(Tabelle1!K22:M22)</f>
+        <v>1.3572073333333334E-3</v>
+      </c>
+      <c r="E48" s="11">
+        <f>AVERAGE(Tabelle1!U22:X22)</f>
+        <v>3.4066862499999998E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="C49" s="11">
+        <f>AVERAGE(Tabelle1!C23:E23)</f>
+        <v>8.06897E-4</v>
+      </c>
+      <c r="D49" s="11">
+        <f>AVERAGE(Tabelle1!K23:M23)</f>
+        <v>1.3690073333333334E-3</v>
+      </c>
+      <c r="E49" s="11">
+        <f>AVERAGE(Tabelle1!U23:X23)</f>
+        <v>3.4075475000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="C50" s="11">
+        <f>AVERAGE(Tabelle1!C24:E24)</f>
+        <v>8.1400666666666668E-4</v>
+      </c>
+      <c r="D50" s="11">
+        <f>AVERAGE(Tabelle1!K24:M24)</f>
+        <v>1.3582993333333335E-3</v>
+      </c>
+      <c r="E50" s="11">
+        <f>AVERAGE(Tabelle1!U24:X24)</f>
+        <v>3.4097835000000002E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>